--- a/web-security-analyzer/xlsx/scripts/test_detailed_security_report.xlsx
+++ b/web-security-analyzer/xlsx/scripts/test_detailed_security_report.xlsx
@@ -814,7 +814,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>2025-10-30 21:17:58</t>
+          <t>2025-10-31 10:16:08</t>
         </is>
       </c>
     </row>
